--- a/results/concrete.xlsx
+++ b/results/concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6596950-89AF-B84C-A7E7-8005DB246845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F67F51-9DE3-3148-81C8-894EFBAB1400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-39740" yWindow="-260" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
@@ -151,33 +151,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,7 +464,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
